--- a/src/DataFixtures/es-test-import.xlsx
+++ b/src/DataFixtures/es-test-import.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sdion/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sdion/Sites/projects/elasticsearch-admin/elasticsearch-admin/src/DataFixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4EC83C-91C8-8146-AE55-8F0D5E06535B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D410A2-96AD-FD46-9D2A-BCF2B85A3D0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7900" yWindow="460" windowWidth="44680" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3220" yWindow="460" windowWidth="44040" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/src/DataFixtures/es-test-import.xlsx
+++ b/src/DataFixtures/es-test-import.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sdion/Sites/projects/elasticsearch-admin/elasticsearch-admin/src/DataFixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D410A2-96AD-FD46-9D2A-BCF2B85A3D0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99146C66-6F9C-F349-98E1-49AE33BC09F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3220" yWindow="460" windowWidth="44040" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="37">
   <si>
     <t>_id</t>
   </si>
@@ -497,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -805,6 +805,774 @@
         <v>28</v>
       </c>
     </row>
+    <row r="10" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="2">
+        <v>44022</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="2">
+        <v>44023</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="2">
+        <v>44024</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="2">
+        <v>44025</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="2">
+        <v>44026</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="2">
+        <v>44027</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="2">
+        <v>44028</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="2">
+        <v>44029</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="2">
+        <v>44022</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="2">
+        <v>44023</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="2">
+        <v>44024</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="2">
+        <v>44025</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="2">
+        <v>44026</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="2">
+        <v>44027</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="2">
+        <v>44028</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="2">
+        <v>44029</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="2">
+        <v>44022</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="2">
+        <v>44023</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="2">
+        <v>44024</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="2">
+        <v>44025</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="2">
+        <v>44026</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="2">
+        <v>44027</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="2">
+        <v>44028</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="2">
+        <v>44029</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
